--- a/bots/crawl_ch/output/bread_coop_2023-01-02.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-02.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2216,13 +2216,13 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Thymian &amp;amp; Salz 3.95 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Thymian &amp;amp; Salz 2+1 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2496,13 +2496,13 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Käse 3.95 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Käse 2+1 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2707,13 +2707,13 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Roland Zwieback Classic 4.40 Schweizer Franken</t>
+          <t>Roland Zwieback Classic 20% ab 2 Aktion 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3198,13 +3198,13 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Ölz Premium Drei-Korn Toast 3.40 Schweizer Franken</t>
+          <t>Ölz Premium Drei-Korn Toast - Online kein Bestand 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7784,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm 2.10 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm - Online kein Bestand 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8062,13 +8062,13 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Tomate &amp;amp; Basilikum 3.95 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Tomate &amp;amp; Basilikum 2+1 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8206,7 +8206,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9904,13 +9904,13 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Dar-Vida Break Cranberry &amp;amp; Apfel 3.10 Schweizer Franken</t>
+          <t>Dar-Vida Break Cranberry &amp;amp; Apfel 2+1 Aktion 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10115,13 +10115,13 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs 3.10 Schweizer Franken</t>
+          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs 2+1 Aktion 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10326,13 +10326,13 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Schokolade dunkel 4.95 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Schokolade dunkel 2+1 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10405,7 +10405,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10468,13 +10468,13 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Ur-Dinkel 3.95 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Ur-Dinkel 2+1 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11170,13 +11170,13 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Dar-Vida Honig extra fin 3.95 Schweizer Franken</t>
+          <t>Dar-Vida Honig extra fin 2+1 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11600,13 +11600,13 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Frischkäse 5.20 Schweizer Franken</t>
+          <t>Dar-Vida Sandwich Frischkäse 2+1 Aktion 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12182,7 +12182,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12245,13 +12245,13 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Dar-Vida Oliven extra fin 3.95 Schweizer Franken</t>
+          <t>Dar-Vida Oliven extra fin 2+1 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12462,7 +12462,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12742,7 +12742,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13452,7 +13452,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13657,13 +13657,13 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 3.95 Schweizer Franken</t>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 2+1 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13732,7 +13732,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -13937,7 +13937,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Nature 3.60 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Nature 2+1 Aktion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -13947,7 +13947,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14016,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14152,7 +14152,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Hafer 3.95 Schweizer Franken</t>
+          <t>Roland Knäckebrot Hafer 20% ab 2 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -14162,7 +14162,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14588,7 +14588,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14651,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 5.20 Schweizer Franken</t>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 2+1 Aktion 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14730,7 +14730,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14862,13 +14862,13 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine au Citron 7 Stück 3.95 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine au Citron 7 Stück 20% ab 2 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15375,7 +15375,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15444,7 +15444,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15513,7 +15513,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15866,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -15935,7 +15935,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16150,7 +16150,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16219,7 +16219,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16361,7 +16361,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16434,7 +16434,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16503,7 +16503,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17276,13 +17276,13 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum 5.20 Schweizer Franken</t>
+          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum 2+1 Aktion 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17422,7 +17422,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17485,13 +17485,13 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 3.95 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 2+1 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17706,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17775,7 +17775,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -17982,7 +17982,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18122,7 +18122,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18264,7 +18264,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18333,7 +18333,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18402,7 +18402,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18548,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18617,7 +18617,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18688,7 +18688,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18757,7 +18757,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18826,7 +18826,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -18968,7 +18968,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19110,7 +19110,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19179,7 +19179,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19248,7 +19248,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19317,7 +19317,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19386,7 +19386,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19455,7 +19455,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19528,7 +19528,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19810,7 +19810,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -19952,7 +19952,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20025,7 +20025,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20092,7 +20092,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20161,7 +20161,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20234,7 +20234,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20303,7 +20303,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20376,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20514,7 +20514,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20583,7 +20583,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20656,7 +20656,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20729,7 +20729,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20802,7 +20802,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20875,7 +20875,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -20948,7 +20948,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21021,7 +21021,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21305,7 +21305,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21374,7 +21374,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21585,7 +21585,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -21938,7 +21938,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22498,7 +22498,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22571,7 +22571,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22640,7 +22640,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22709,7 +22709,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22778,7 +22778,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23058,7 +23058,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23131,7 +23131,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23200,7 +23200,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23342,7 +23342,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23480,7 +23480,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23549,7 +23549,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23910,7 +23910,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -23979,7 +23979,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24048,7 +24048,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24117,7 +24117,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24255,7 +24255,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24324,7 +24324,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24462,7 +24462,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24531,7 +24531,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24604,7 +24604,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25085,7 +25085,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25639,7 +25639,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25706,7 +25706,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25775,7 +25775,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25848,7 +25848,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25921,7 +25921,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -25994,7 +25994,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26134,7 +26134,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26276,7 +26276,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26345,7 +26345,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26418,7 +26418,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26560,7 +26560,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26633,7 +26633,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26702,7 +26702,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26773,7 +26773,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26840,7 +26840,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26913,7 +26913,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -26982,7 +26982,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27049,7 +27049,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27122,7 +27122,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27195,7 +27195,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27268,7 +27268,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27337,7 +27337,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27404,7 +27404,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27548,7 +27548,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27621,7 +27621,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27690,7 +27690,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27757,7 +27757,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27826,7 +27826,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27895,7 +27895,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -27964,7 +27964,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -28033,7 +28033,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -28106,7 +28106,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -28173,7 +28173,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -28242,7 +28242,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -28309,7 +28309,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -28378,7 +28378,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>
@@ -28514,7 +28514,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-02 06:49:37</t>
+          <t>2023-01-02 12:57:01</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2023-01-02.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-02.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Ölz Vollkorn Sandwich Toast Soft 4.35 Schweizer Franken</t>
+          <t>Ölz Vollkorn Sandwich Toast Soft - Online kein Bestand 4.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7784,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8206,7 +8206,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10332,7 +10332,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10405,7 +10405,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10474,7 +10474,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12182,7 +12182,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12462,7 +12462,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12742,7 +12742,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13452,7 +13452,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13732,7 +13732,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14016,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14162,7 +14162,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14588,7 +14588,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14730,7 +14730,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14868,7 +14868,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15375,7 +15375,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15444,7 +15444,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15513,7 +15513,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15866,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -15935,7 +15935,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16150,7 +16150,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16219,7 +16219,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16361,7 +16361,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16434,7 +16434,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16503,7 +16503,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16781,7 +16781,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig -35% Fett - Online kein Bestand 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -16791,7 +16791,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17282,7 +17282,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17422,7 +17422,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17491,7 +17491,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17706,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17775,7 +17775,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -17982,7 +17982,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18122,7 +18122,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18264,7 +18264,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18333,7 +18333,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18402,7 +18402,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18548,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18617,7 +18617,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18688,7 +18688,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18757,7 +18757,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18826,7 +18826,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -18968,7 +18968,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19110,7 +19110,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19179,7 +19179,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19248,7 +19248,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19317,7 +19317,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19386,7 +19386,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19455,7 +19455,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19528,7 +19528,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19810,7 +19810,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -19952,7 +19952,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20025,7 +20025,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20092,7 +20092,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20161,7 +20161,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20234,7 +20234,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20303,7 +20303,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20376,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20514,7 +20514,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20583,7 +20583,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20656,7 +20656,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20729,7 +20729,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20802,7 +20802,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20875,7 +20875,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -20948,7 +20948,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21021,7 +21021,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21305,7 +21305,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21374,7 +21374,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21585,7 +21585,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -21938,7 +21938,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22498,7 +22498,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22571,7 +22571,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22640,7 +22640,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22709,7 +22709,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22778,7 +22778,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23058,7 +23058,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23131,7 +23131,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23200,7 +23200,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23342,7 +23342,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23480,7 +23480,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23549,7 +23549,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23910,7 +23910,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -23979,7 +23979,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24048,7 +24048,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24117,7 +24117,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24255,7 +24255,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24324,7 +24324,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24462,7 +24462,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24531,7 +24531,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24604,7 +24604,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25085,7 +25085,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25639,7 +25639,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25706,7 +25706,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25775,7 +25775,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25848,7 +25848,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25921,7 +25921,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -25994,7 +25994,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26134,7 +26134,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26276,7 +26276,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26345,7 +26345,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26418,7 +26418,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26560,7 +26560,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26633,7 +26633,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26702,7 +26702,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26773,7 +26773,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26840,7 +26840,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26913,7 +26913,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -26982,7 +26982,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27049,7 +27049,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27122,7 +27122,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27195,7 +27195,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27268,7 +27268,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27337,7 +27337,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27404,7 +27404,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27548,7 +27548,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27611,7 +27611,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
@@ -27621,7 +27621,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27690,7 +27690,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27757,7 +27757,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27826,7 +27826,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27895,7 +27895,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -27964,7 +27964,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -28033,7 +28033,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -28106,7 +28106,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -28173,7 +28173,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -28242,7 +28242,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -28309,7 +28309,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -28378,7 +28378,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
@@ -28514,7 +28514,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-02 12:57:01</t>
+          <t>2023-01-02 20:49:56</t>
         </is>
       </c>
     </row>
